--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303467.986786913</v>
+        <v>1301215.907075705</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283213</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>279.3751023006579</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826024</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>158.1837596300285</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>40.3583228154685</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>69.49139589553609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.90969376287409</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.25588147840212</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>84.82420463792828</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>358.7131777195891</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045342</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991771</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695169</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>59.67415913388945</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.6969570046962</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>281.677844672525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.019807611470221</v>
       </c>
       <c r="E22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833524</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892472</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>152.829112101962</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161894392</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,10 +3433,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>69.82863813027285</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,19 +4325,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.60866391532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.60866391532</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.60866391532</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2029.572515263131</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C5" t="n">
-        <v>1660.609998322719</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.344299715969</v>
+        <v>954.6078386576651</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>568.8195860594208</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>561.8740853102173</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>146.8016351552138</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,7 +4586,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.572515263131</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1560.097191887061</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1305.412703681174</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1015.995533644213</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>788.005982746196</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.807527238425</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.845010298013</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>863.5793116912625</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>477.7910590930183</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>470.8455583438148</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883009</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539438</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539438</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278358</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302546</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,10 +4887,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694704</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962605</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.221377756498</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.232257523795</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>848.2960745958877</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>698.179435183552</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>550.2663416011588</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>403.3763941032485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>236.1802948181284</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565342</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523795</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245718</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403302</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,37 +5413,37 @@
         <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400703</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277345</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277345</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5580,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797182</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703798</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969314</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.899304487667</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>411.9631215597601</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179067</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121614</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,58 +6449,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876673</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597605</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474247</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474247</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6661,10 +6661,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,34 +7190,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782912</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2376.429105670894</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2156.827640693835</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1867.752414038033</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1613.067925832146</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1323.650755795185</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7388,22 +7388,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,10 +7412,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7427,31 +7427,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7731,22 +7731,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.652189661806915e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>80.62055371233444</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>43.724091018235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393159</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.240074875066057e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>4.845153664066004</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067421</v>
       </c>
       <c r="E22" t="n">
-        <v>36.41624546988356</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459601</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.75554125013275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067418</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.4596884482355</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>111.1976478713717</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>938587.6370487163</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140037</v>
@@ -26369,25 +26369,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073542</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.708981578005478e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551145</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90354.06702314483</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90354.06702314482</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90354.06702314477</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90354.06702314471</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26445,7 +26445,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
@@ -26454,7 +26454,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179352</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-1034407.691393561</v>
       </c>
       <c r="C6" t="n">
-        <v>294337.0543340321</v>
+        <v>294337.0543340319</v>
       </c>
       <c r="D6" t="n">
-        <v>294337.0543340318</v>
+        <v>294337.054334032</v>
       </c>
       <c r="E6" t="n">
-        <v>46585.93593094859</v>
+        <v>46551.19800551243</v>
       </c>
       <c r="F6" t="n">
-        <v>371998.3977383028</v>
+        <v>371963.659812867</v>
       </c>
       <c r="G6" t="n">
-        <v>371998.3977383028</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="H6" t="n">
-        <v>371998.3977383025</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="I6" t="n">
-        <v>371998.3977383031</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="J6" t="n">
-        <v>154467.1953410254</v>
+        <v>154432.4574155899</v>
       </c>
       <c r="K6" t="n">
-        <v>371998.3977383029</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="L6" t="n">
-        <v>371998.3977383029</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="M6" t="n">
-        <v>286943.3698027916</v>
+        <v>286908.6318773556</v>
       </c>
       <c r="N6" t="n">
-        <v>371998.3977383029</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="O6" t="n">
-        <v>371998.3977383029</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="P6" t="n">
-        <v>371998.397738303</v>
+        <v>371963.6598128672</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973544</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973541</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973544</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>85.89778947034961</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>128.3392387065625</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>178.2263305366263</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>312.4389741767257</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.6980706244464</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>79.09653893143596</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>201.3876335676846</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>52.20854793386434</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356952</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29010,7 +29010,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-2.920938348146081e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31753,7 +31753,7 @@
         <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067231</v>
@@ -31762,28 +31762,28 @@
         <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913773</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31914,7 +31914,7 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
@@ -31929,13 +31929,13 @@
         <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305205</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,13 +32099,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338216</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>339.3493584601591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770471</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899073</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998983</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561616</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394743</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294884</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>200.7949786802849</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38111,13 +38111,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
